--- a/biology/Biochimie/Hydroxyméthylglutaryl-CoA_synthase/Hydroxyméthylglutaryl-CoA_synthase.xlsx
+++ b/biology/Biochimie/Hydroxyméthylglutaryl-CoA_synthase/Hydroxyméthylglutaryl-CoA_synthase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hydroxym%C3%A9thylglutaryl-CoA_synthase</t>
+          <t>Hydroxyméthylglutaryl-CoA_synthase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hydroxyméthylglutaryl-CoA synthase (HMG-CoA synthase, HMGCS) est une transférase de la voie du mévalonate qui catalyse la réaction :
 Chez les eucaryotes, il en existe deux isozymes différents, l'un cytosolique et l'autre mitochondrial (chez l'Humain, seuls 60,6 % des acides aminés sont communs à ces deux isozymes) :
 Dans le cytosol, l'HMG-CoA synthase réalise la seconde étape de la voie du mévalonate, essentielle à la biosynthèse du cholestérol et des terpénoïdes.
 Dans les mitochondries, l'HMG-CoA synthase est responsable de la biosynthèse des corps cétoniques.
-Chez les bactéries, les précurseurs des terpénoïdes sont généralement synthétisés à travers une voie métabolique alternative, la voie du méthylérythritol phosphate ; cependant, un certain nombre d'agents infectieux à Gram positif possèdent une voie du mévalonate parallèle à celle des eucaryotes[1],[2].
+Chez les bactéries, les précurseurs des terpénoïdes sont généralement synthétisés à travers une voie métabolique alternative, la voie du méthylérythritol phosphate ; cependant, un certain nombre d'agents infectieux à Gram positif possèdent une voie du mévalonate parallèle à celle des eucaryotes,.
 </t>
         </is>
       </c>
